--- a/net_12_ssh/practice_homework/practice_1_ssh_username_from_excel/excel_file/write_pyxl.xlsx
+++ b/net_12_ssh/practice_homework/practice_1_ssh_username_from_excel/excel_file/write_pyxl.xlsx
@@ -54,6 +54,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,7 +465,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cisco123</t>
+          <t>Cisc0123</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -407,30 +475,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test456</t>
+          <t>test124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cisco456</t>
+          <t>Cisc0123</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test789</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>cisco789</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
